--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="418">
   <si>
     <t>TCID</t>
   </si>
@@ -1554,9 +1554,6 @@
     <t>Pay By eCredit card Initial</t>
   </si>
   <si>
-    <t>Antenna ::  ::  :: paa ::  :: fifth :: m ::  ::  ::  ::  :: due</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Antenna </t>
     </r>
@@ -1588,9 +1585,6 @@
     <t>PayInitialByCreditCardTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Antenna ::  ::  :: paa ::  :: fifth :: m ::  ::  ::  ::  :: due :: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Antenna ::  :: i ::  ::  :: fifth ::  ::  ::  ::  ::  :: due :: </t>
   </si>
   <si>
@@ -1598,12 +1592,6 @@
   </si>
   <si>
     <t>PaySubsByCreditCardTest</t>
-  </si>
-  <si>
-    <t>Antenna ::  ::  :: subs ::  :: fifth ::  ::  ::  ::  ::  :: due</t>
-  </si>
-  <si>
-    <t>Curb Cut ::  ::  :: subsequent :: approved :: fifth avenue ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
     <t>PayPaaByCheckTest</t>
@@ -1716,76 +1704,85 @@
     <t>Curb Cut ::  ::  ::  :: pending plan :: 887 ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
+    <t>AnProfCert</t>
+  </si>
+  <si>
+    <t>AnProfCertPW2</t>
+  </si>
+  <si>
+    <t>AnStandard</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2</t>
+  </si>
+  <si>
+    <t>AnQaFailedProfCertPW2</t>
+  </si>
+  <si>
+    <t>AnQaFailedProfCert</t>
+  </si>
+  <si>
+    <t>AnIncomplete</t>
+  </si>
+  <si>
+    <t>CcProfCert</t>
+  </si>
+  <si>
+    <t>CcProfCertPW2</t>
+  </si>
+  <si>
+    <t>CcQaFailedProfCert</t>
+  </si>
+  <si>
+    <t>CcQaFailedProfCertPW2</t>
+  </si>
+  <si>
+    <t>CcQaFailed</t>
+  </si>
+  <si>
+    <t>CcStandard</t>
+  </si>
+  <si>
+    <t>Antenna ::  ::  :: subsequent :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
+  </si>
+  <si>
+    <t>AnQaFailed</t>
+  </si>
+  <si>
+    <t>Antenna ::  ::  :: paa ::  ::  ::  ::  ::  ::  ::  :: due</t>
+  </si>
+  <si>
+    <t>Curb Cut ::  ::  :: subsequent :: approved :: fifth avenue ::  ::  ::  ::  ::  :: exempted</t>
+  </si>
+  <si>
+    <t>Antenna ::  :: I ::  :: approved :: 1000 ::  ::  ::  ::  ::  :: exempted</t>
+  </si>
+  <si>
     <t>cpe_acpe</t>
   </si>
   <si>
+    <t>primary_pe</t>
+  </si>
+  <si>
+    <t>secondary_pe</t>
+  </si>
+  <si>
     <t>BUILD007 :: CPE/ACPE Team 1 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD005 Plan Examiner</t>
   </si>
   <si>
-    <t>AnProfCert</t>
-  </si>
-  <si>
-    <t>AnProfCertPW2</t>
-  </si>
-  <si>
-    <t>AnStandard</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2</t>
-  </si>
-  <si>
-    <t>AnQaFailedProfCertPW2</t>
-  </si>
-  <si>
-    <t>AnQaFailedProfCert</t>
-  </si>
-  <si>
-    <t>AnIncomplete</t>
-  </si>
-  <si>
-    <t>CcProfCert</t>
-  </si>
-  <si>
-    <t>CcProfCertPW2</t>
-  </si>
-  <si>
-    <t>CcQaFailedProfCert</t>
-  </si>
-  <si>
-    <t>CcQaFailedProfCertPW2</t>
-  </si>
-  <si>
-    <t>CcQaFailed</t>
-  </si>
-  <si>
-    <t>CcStandard</t>
-  </si>
-  <si>
-    <t>primary_pe</t>
-  </si>
-  <si>
-    <t>secondary_pe</t>
+    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: BUILD027 Plan Examiner :: Approve</t>
   </si>
   <si>
     <t>BUILD027 :: No :: Approved :: Yes</t>
   </si>
   <si>
-    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: BUILD027 Plan Examiner :: Approve</t>
-  </si>
-  <si>
     <t>BUILD017 :: BUILD023 QA</t>
   </si>
   <si>
     <t>BUILD023 :: Permit Issued</t>
-  </si>
-  <si>
-    <t>Antenna ::  ::  :: subsequent :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
-  </si>
-  <si>
-    <t>AnQaFailed</t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3136,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -3163,7 +3160,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="63" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>3</v>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>3</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="63" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>3</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="63" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>3</v>
@@ -3220,7 +3217,7 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="63" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="58" t="s">
@@ -3229,7 +3226,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="43" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="58" t="s">
@@ -3274,7 +3271,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="63" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>3</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="43" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="58" t="s">
@@ -3299,7 +3296,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="55" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>3</v>
@@ -3313,7 +3310,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>3</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>3</v>
@@ -3354,7 +3351,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>3</v>
@@ -3362,7 +3359,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>3</v>
@@ -3370,7 +3367,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>3</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>3</v>
@@ -3436,7 +3433,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>3</v>
@@ -3444,7 +3441,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>3</v>
@@ -3476,7 +3473,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="63" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>3</v>
@@ -3484,7 +3481,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>3</v>
@@ -3492,7 +3489,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>3</v>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>3</v>
@@ -3554,9 +3551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A65" sqref="A65:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3564,7 +3561,7 @@
     <col min="1" max="1" width="33.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="34.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -4107,79 +4104,79 @@
       <c r="CY4" s="31"/>
       <c r="CZ4" s="31"/>
     </row>
-    <row r="5" spans="1:138" s="9" customFormat="1">
+    <row r="5" spans="1:138" s="25" customFormat="1">
       <c r="A5" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="BW5" s="8"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8"/>
-      <c r="CE5" s="8"/>
-      <c r="CF5" s="8"/>
-      <c r="CG5" s="8"/>
-      <c r="CQ5" s="8"/>
-      <c r="CS5" s="8"/>
-      <c r="CT5" s="8"/>
-      <c r="CU5" s="8"/>
-      <c r="CV5" s="8"/>
-      <c r="CW5" s="8"/>
-      <c r="CX5" s="8"/>
-      <c r="CY5" s="8"/>
-      <c r="CZ5" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="38"/>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CS5" s="38"/>
+      <c r="CT5" s="38"/>
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38"/>
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="38"/>
+      <c r="CY5" s="38"/>
+      <c r="CZ5" s="38"/>
     </row>
-    <row r="6" spans="1:138" s="11" customFormat="1" ht="38.25">
+    <row r="6" spans="1:138" s="15" customFormat="1" ht="38.25">
       <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
@@ -4232,7 +4229,7 @@
         <v>17</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>58</v>
@@ -4382,7 +4379,7 @@
         <v>51</v>
       </c>
       <c r="BP6" s="6" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="BQ6" s="15" t="s">
         <v>226</v>
@@ -4591,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>323</v>
@@ -4603,19 +4600,19 @@
         <v>14</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>317</v>
@@ -4631,7 +4628,7 @@
       </c>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>3</v>
@@ -4738,7 +4735,7 @@
         <v>140</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4" t="s">
@@ -4749,7 +4746,7 @@
         <v>321</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="BW7" s="4"/>
       <c r="BX7" s="14"/>
@@ -4767,7 +4764,7 @@
       </c>
       <c r="CF7" s="4"/>
       <c r="CG7" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="CH7" s="14" t="s">
         <v>118</v>
@@ -4797,7 +4794,7 @@
         <v>109</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CR7" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4809,7 @@
         <v>109</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CW7" s="4" t="s">
         <v>3</v>
@@ -4824,78 +4821,6 @@
       <c r="CZ7" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:138" s="5" customFormat="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="6"/>
-      <c r="AM8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4"/>
-      <c r="BT8" s="4"/>
-      <c r="BU8" s="4"/>
-      <c r="BV8" s="4"/>
-      <c r="BW8" s="4"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="4"/>
-      <c r="CA8" s="4"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="4"/>
-      <c r="CE8" s="4"/>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="23"/>
-      <c r="CH8" s="14"/>
-      <c r="CJ8" s="23"/>
-      <c r="CK8" s="14"/>
-      <c r="CL8" s="14"/>
-      <c r="CM8" s="14"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
-      <c r="CV8" s="4"/>
-      <c r="CW8" s="4"/>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="23"/>
     </row>
     <row r="9" spans="1:138">
       <c r="A9" s="52"/>
@@ -5305,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>58</v>
@@ -5677,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>52</v>
@@ -5692,7 +5617,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>323</v>
@@ -5704,19 +5629,19 @@
         <v>14</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X15" s="14" t="s">
         <v>317</v>
@@ -5732,7 +5657,7 @@
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>3</v>
@@ -5921,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="ED15" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="EE15" s="4" t="s">
         <v>326</v>
@@ -5935,7 +5860,7 @@
     </row>
     <row r="17" spans="1:128" s="9" customFormat="1">
       <c r="A17" s="43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B17" s="8"/>
       <c r="E17" s="8"/>
@@ -6058,7 +5983,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>58</v>
@@ -6396,13 +6321,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>52</v>
@@ -6417,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>323</v>
@@ -6429,19 +6354,19 @@
         <v>14</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X19" s="14" t="s">
         <v>317</v>
@@ -6457,7 +6382,7 @@
       </c>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD19" s="14" t="s">
         <v>3</v>
@@ -6704,7 +6629,7 @@
     </row>
     <row r="21" spans="1:128" s="9" customFormat="1">
       <c r="A21" s="43" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B21" s="8"/>
       <c r="E21" s="8"/>
@@ -6827,7 +6752,7 @@
         <v>17</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>58</v>
@@ -7186,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>323</v>
@@ -7198,19 +7123,19 @@
         <v>14</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X23" s="14" t="s">
         <v>317</v>
@@ -7226,7 +7151,7 @@
       </c>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD23" s="14" t="s">
         <v>3</v>
@@ -7525,7 +7450,7 @@
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>58</v>
@@ -7836,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>323</v>
@@ -7848,19 +7773,19 @@
         <v>14</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X27" s="14" t="s">
         <v>317</v>
@@ -7876,7 +7801,7 @@
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD27" s="14" t="s">
         <v>3</v>
@@ -8173,7 +8098,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>58</v>
@@ -8254,7 +8179,7 @@
         <v>63</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AT30" s="6" t="s">
         <v>65</v>
@@ -8517,7 +8442,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>52</v>
@@ -8532,7 +8457,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>323</v>
@@ -8544,19 +8469,19 @@
         <v>14</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X31" s="14" t="s">
         <v>317</v>
@@ -8572,7 +8497,7 @@
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD31" s="14" t="s">
         <v>3</v>
@@ -8937,7 +8862,7 @@
         <v>17</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>58</v>
@@ -9281,7 +9206,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>52</v>
@@ -9296,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>323</v>
@@ -9308,7 +9233,7 @@
         <v>14</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>124</v>
@@ -9317,13 +9242,13 @@
         <v>3</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X35" s="14" t="s">
         <v>317</v>
@@ -9341,7 +9266,7 @@
         <v>59</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD35" s="14" t="s">
         <v>3</v>
@@ -9707,7 +9632,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>58</v>
@@ -10040,7 +9965,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:132" s="5" customFormat="1" ht="63.75">
+    <row r="39" spans="1:132" s="5" customFormat="1" ht="51">
       <c r="A39" s="33" t="s">
         <v>3</v>
       </c>
@@ -10051,7 +9976,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>52</v>
@@ -10066,7 +9991,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>323</v>
@@ -10078,19 +10003,19 @@
         <v>14</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X39" s="14" t="s">
         <v>317</v>
@@ -10106,7 +10031,7 @@
       </c>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD39" s="14" t="s">
         <v>3</v>
@@ -10464,7 +10389,7 @@
         <v>17</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>58</v>
@@ -10820,7 +10745,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>52</v>
@@ -10835,7 +10760,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>323</v>
@@ -10847,19 +10772,19 @@
         <v>14</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V43" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X43" s="14" t="s">
         <v>317</v>
@@ -10875,7 +10800,7 @@
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD43" s="14" t="s">
         <v>3</v>
@@ -11062,7 +10987,7 @@
     </row>
     <row r="45" spans="1:132" s="9" customFormat="1">
       <c r="A45" s="43" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B45" s="8"/>
       <c r="E45" s="8"/>
@@ -11185,7 +11110,7 @@
         <v>17</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>58</v>
@@ -11556,19 +11481,19 @@
         <v>14</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X47" s="14" t="s">
         <v>317</v>
@@ -11584,7 +11509,7 @@
       </c>
       <c r="AB47" s="14"/>
       <c r="AC47" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD47" s="14" t="s">
         <v>3</v>
@@ -11759,7 +11684,7 @@
     </row>
     <row r="49" spans="1:128" s="9" customFormat="1">
       <c r="A49" s="63" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
@@ -11882,7 +11807,7 @@
         <v>17</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>58</v>
@@ -12220,7 +12145,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>302</v>
@@ -12253,7 +12178,7 @@
         <v>14</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>124</v>
@@ -12262,13 +12187,13 @@
         <v>3</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X51" s="14" t="s">
         <v>317</v>
@@ -12284,7 +12209,7 @@
       </c>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD51" s="14" t="s">
         <v>3</v>
@@ -12352,7 +12277,7 @@
         <v>314</v>
       </c>
       <c r="BG51" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="BH51" s="14" t="s">
         <v>314</v>
@@ -12494,7 +12419,7 @@
     </row>
     <row r="53" spans="1:128" s="9" customFormat="1">
       <c r="A53" s="63" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
@@ -12617,7 +12542,7 @@
         <v>17</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S54" s="15" t="s">
         <v>58</v>
@@ -12955,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>16</v>
@@ -12976,7 +12901,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>323</v>
@@ -12988,19 +12913,19 @@
         <v>14</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X55" s="14" t="s">
         <v>317</v>
@@ -13016,7 +12941,7 @@
       </c>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD55" s="14" t="s">
         <v>3</v>
@@ -13257,7 +13182,7 @@
     </row>
     <row r="57" spans="1:128" s="9" customFormat="1">
       <c r="A57" s="43" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
@@ -13380,7 +13305,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S58" s="15" t="s">
         <v>58</v>
@@ -13718,7 +13643,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>302</v>
@@ -13751,19 +13676,19 @@
         <v>14</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X59" s="14" t="s">
         <v>317</v>
@@ -13779,7 +13704,7 @@
       </c>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD59" s="14" t="s">
         <v>3</v>
@@ -13955,7 +13880,7 @@
     </row>
     <row r="61" spans="1:128" s="9" customFormat="1">
       <c r="A61" s="63" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
@@ -14078,7 +14003,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>58</v>
@@ -14416,7 +14341,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>302</v>
@@ -14449,19 +14374,19 @@
         <v>14</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U63" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X63" s="14" t="s">
         <v>317</v>
@@ -14477,7 +14402,7 @@
       </c>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD63" s="14" t="s">
         <v>3</v>
@@ -14545,7 +14470,7 @@
         <v>314</v>
       </c>
       <c r="BG63" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="BH63" s="14" t="s">
         <v>314</v>
@@ -14619,79 +14544,79 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:128" s="9" customFormat="1">
-      <c r="A65" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="8"/>
-      <c r="AL65" s="8"/>
-      <c r="AM65" s="8"/>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="8"/>
-      <c r="AP65" s="8"/>
-      <c r="AQ65" s="8"/>
-      <c r="AR65" s="8"/>
-      <c r="AS65" s="8"/>
-      <c r="AT65" s="8"/>
-      <c r="AU65" s="8"/>
-      <c r="AV65" s="8"/>
-      <c r="AW65" s="8"/>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="8"/>
-      <c r="AZ65" s="8"/>
-      <c r="BA65" s="8"/>
-      <c r="BB65" s="8"/>
-      <c r="BC65" s="8"/>
-      <c r="BD65" s="8"/>
-      <c r="BE65" s="8"/>
-      <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-      <c r="BH65" s="8"/>
-      <c r="BI65" s="8"/>
-      <c r="BJ65" s="8"/>
-      <c r="BK65" s="8"/>
-      <c r="BL65" s="8"/>
-      <c r="BM65" s="8"/>
-      <c r="BN65" s="8"/>
-      <c r="BO65" s="8"/>
-      <c r="BP65" s="8"/>
-      <c r="BR65" s="8"/>
-      <c r="BS65" s="8"/>
-      <c r="BT65" s="8"/>
-      <c r="BU65" s="8"/>
-      <c r="BV65" s="8"/>
-      <c r="BW65" s="8"/>
-      <c r="BX65" s="8"/>
-      <c r="BY65" s="8"/>
-      <c r="CA65" s="8"/>
-      <c r="CC65" s="8"/>
-      <c r="CD65" s="8"/>
-      <c r="CE65" s="8"/>
-      <c r="CF65" s="8"/>
-      <c r="CG65" s="8"/>
-      <c r="CQ65" s="8"/>
-      <c r="CS65" s="8"/>
-      <c r="CT65" s="8"/>
-      <c r="CU65" s="8"/>
-      <c r="CV65" s="8"/>
-      <c r="CW65" s="8"/>
-      <c r="CX65" s="8"/>
-      <c r="CY65" s="8"/>
-      <c r="CZ65" s="8"/>
+    <row r="65" spans="1:128" s="25" customFormat="1">
+      <c r="A65" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="38"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="38"/>
+      <c r="AS65" s="38"/>
+      <c r="AT65" s="38"/>
+      <c r="AU65" s="38"/>
+      <c r="AV65" s="38"/>
+      <c r="AW65" s="38"/>
+      <c r="AX65" s="38"/>
+      <c r="AY65" s="38"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="38"/>
+      <c r="BB65" s="38"/>
+      <c r="BC65" s="38"/>
+      <c r="BD65" s="38"/>
+      <c r="BE65" s="38"/>
+      <c r="BF65" s="38"/>
+      <c r="BG65" s="38"/>
+      <c r="BH65" s="38"/>
+      <c r="BI65" s="38"/>
+      <c r="BJ65" s="38"/>
+      <c r="BK65" s="38"/>
+      <c r="BL65" s="38"/>
+      <c r="BM65" s="38"/>
+      <c r="BN65" s="38"/>
+      <c r="BO65" s="38"/>
+      <c r="BP65" s="38"/>
+      <c r="BR65" s="38"/>
+      <c r="BS65" s="38"/>
+      <c r="BT65" s="38"/>
+      <c r="BU65" s="38"/>
+      <c r="BV65" s="38"/>
+      <c r="BW65" s="38"/>
+      <c r="BX65" s="38"/>
+      <c r="BY65" s="38"/>
+      <c r="CA65" s="38"/>
+      <c r="CC65" s="38"/>
+      <c r="CD65" s="38"/>
+      <c r="CE65" s="38"/>
+      <c r="CF65" s="38"/>
+      <c r="CG65" s="38"/>
+      <c r="CQ65" s="38"/>
+      <c r="CS65" s="38"/>
+      <c r="CT65" s="38"/>
+      <c r="CU65" s="38"/>
+      <c r="CV65" s="38"/>
+      <c r="CW65" s="38"/>
+      <c r="CX65" s="38"/>
+      <c r="CY65" s="38"/>
+      <c r="CZ65" s="38"/>
     </row>
-    <row r="66" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="66" spans="1:128" s="15" customFormat="1" ht="38.25">
       <c r="A66" s="17" t="s">
         <v>2</v>
       </c>
@@ -14744,7 +14669,7 @@
         <v>17</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S66" s="15" t="s">
         <v>58</v>
@@ -14894,7 +14819,7 @@
         <v>51</v>
       </c>
       <c r="BP66" s="6" t="s">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="BQ66" s="15" t="s">
         <v>226</v>
@@ -14909,10 +14834,10 @@
         <v>120</v>
       </c>
       <c r="BU66" s="16" t="s">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="BV66" s="16" t="s">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="BW66" s="16" t="s">
         <v>121</v>
@@ -15103,7 +15028,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>323</v>
@@ -15115,19 +15040,19 @@
         <v>14</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X67" s="14" t="s">
         <v>317</v>
@@ -15143,7 +15068,7 @@
       </c>
       <c r="AB67" s="14"/>
       <c r="AC67" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD67" s="14" t="s">
         <v>3</v>
@@ -15249,19 +15174,19 @@
       <c r="BO67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="BP67" s="14" t="s">
-        <v>78</v>
+      <c r="BP67" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="BR67" s="4"/>
       <c r="BS67" s="4" t="s">
-        <v>319</v>
+        <v>414</v>
       </c>
       <c r="BT67" s="4"/>
       <c r="BU67" s="4" t="s">
         <v>321</v>
       </c>
       <c r="BV67" s="4" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="BW67" s="4"/>
       <c r="BX67" s="14"/>
@@ -15278,8 +15203,8 @@
         <v>93</v>
       </c>
       <c r="CF67" s="4"/>
-      <c r="CG67" s="23" t="s">
-        <v>52</v>
+      <c r="CG67" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="CH67" s="14" t="s">
         <v>118</v>
@@ -15309,7 +15234,7 @@
         <v>109</v>
       </c>
       <c r="CQ67" s="4" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="CR67" s="4" t="s">
         <v>3</v>
@@ -15324,7 +15249,7 @@
         <v>109</v>
       </c>
       <c r="CV67" s="4" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="CW67" s="4" t="s">
         <v>3</v>
@@ -15411,7 +15336,7 @@
     </row>
     <row r="69" spans="1:128" s="9" customFormat="1">
       <c r="A69" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" s="8"/>
       <c r="E69" s="8"/>
@@ -15875,7 +15800,7 @@
         <v>272</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>274</v>
@@ -15970,7 +15895,7 @@
     </row>
     <row r="73" spans="1:128" s="9" customFormat="1">
       <c r="A73" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="8"/>
       <c r="E73" s="8"/>
@@ -16434,7 +16359,7 @@
         <v>362</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>273</v>
@@ -16532,7 +16457,7 @@
     </row>
     <row r="77" spans="1:128" s="9" customFormat="1">
       <c r="A77" s="63" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B77" s="8"/>
       <c r="E77" s="8"/>
@@ -16988,7 +16913,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="79" spans="1:128" s="5" customFormat="1" ht="38.25">
       <c r="A79" s="33" t="s">
         <v>3</v>
       </c>
@@ -16996,7 +16921,7 @@
         <v>361</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>274</v>
@@ -17091,7 +17016,7 @@
     </row>
     <row r="81" spans="1:128" s="9" customFormat="1">
       <c r="A81" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B81" s="8"/>
       <c r="E81" s="8"/>
@@ -17547,7 +17472,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="83" spans="1:128" s="5" customFormat="1" ht="38.25">
       <c r="A83" s="33" t="s">
         <v>3</v>
       </c>
@@ -17555,7 +17480,7 @@
         <v>360</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>273</v>
@@ -17565,7 +17490,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="W83" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X83" s="14"/>
       <c r="Z83" s="14"/>
@@ -17656,7 +17581,7 @@
     </row>
     <row r="85" spans="1:128" s="9" customFormat="1">
       <c r="A85" s="63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B85" s="8"/>
       <c r="E85" s="8"/>
@@ -17734,10 +17659,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
@@ -17779,7 +17704,7 @@
         <v>17</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S86" s="15" t="s">
         <v>58</v>
@@ -18119,11 +18044,11 @@
       <c r="B87" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="25" t="s">
-        <v>371</v>
+      <c r="C87" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>52</v>
@@ -18138,7 +18063,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>323</v>
@@ -18150,19 +18075,19 @@
         <v>14</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W87" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X87" s="14" t="s">
         <v>317</v>
@@ -18178,7 +18103,7 @@
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD87" s="14" t="s">
         <v>3</v>
@@ -18440,7 +18365,7 @@
     </row>
     <row r="89" spans="1:128" s="9" customFormat="1">
       <c r="A89" s="63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B89" s="8"/>
       <c r="E89" s="8"/>
@@ -18518,10 +18443,10 @@
         <v>6</v>
       </c>
       <c r="C90" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
@@ -18563,7 +18488,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>58</v>
@@ -18903,11 +18828,11 @@
       <c r="B91" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>371</v>
+      <c r="C91" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>52</v>
@@ -18922,7 +18847,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>323</v>
@@ -18934,19 +18859,19 @@
         <v>14</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>318</v>
       </c>
       <c r="W91" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="X91" s="14" t="s">
         <v>317</v>
@@ -18962,7 +18887,7 @@
       </c>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD91" s="14" t="s">
         <v>3</v>
@@ -19555,7 +19480,7 @@
         <v>17</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>58</v>
@@ -19828,7 +19753,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>53</v>
@@ -19843,7 +19768,7 @@
         <v>3</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>117</v>
@@ -19861,13 +19786,13 @@
         <v>5</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>124</v>
       </c>
       <c r="U97" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V97" s="5" t="s">
         <v>318</v>
@@ -19889,7 +19814,7 @@
         <v>59</v>
       </c>
       <c r="AC97" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD97" s="14" t="s">
         <v>3</v>
@@ -20144,7 +20069,7 @@
         <v>17</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S100" s="15" t="s">
         <v>58</v>
@@ -20503,10 +20428,10 @@
         <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S101" s="5" t="s">
         <v>124</v>
@@ -20531,7 +20456,7 @@
         <v>59</v>
       </c>
       <c r="AC101" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD101" s="14" t="s">
         <v>3</v>
@@ -20799,7 +20724,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S104" s="15" t="s">
         <v>58</v>
@@ -21108,10 +21033,10 @@
         <v>3</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>124</v>
@@ -21136,7 +21061,7 @@
         <v>59</v>
       </c>
       <c r="AC105" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD105" s="14" t="s">
         <v>3</v>
@@ -21405,7 +21330,7 @@
         <v>17</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S108" s="15" t="s">
         <v>58</v>
@@ -21764,7 +21689,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>323</v>
@@ -21776,7 +21701,7 @@
         <v>14</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>124</v>
@@ -21785,7 +21710,7 @@
         <v>3</v>
       </c>
       <c r="U109" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V109" s="5" t="s">
         <v>318</v>
@@ -21809,7 +21734,7 @@
         <v>59</v>
       </c>
       <c r="AC109" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD109" s="14" t="s">
         <v>3</v>
@@ -21993,8 +21918,8 @@
       <c r="CZ109" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="DA109" s="4" t="s">
-        <v>3</v>
+      <c r="DA109" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="DB109" s="24" t="s">
         <v>53</v>
@@ -22185,7 +22110,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S112" s="15" t="s">
         <v>58</v>
@@ -22544,7 +22469,7 @@
         <v>3</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>323</v>
@@ -22556,7 +22481,7 @@
         <v>14</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>124</v>
@@ -22565,7 +22490,7 @@
         <v>3</v>
       </c>
       <c r="U113" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>318</v>
@@ -22589,7 +22514,7 @@
         <v>59</v>
       </c>
       <c r="AC113" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD113" s="14" t="s">
         <v>3</v>
@@ -22773,8 +22698,8 @@
       <c r="CZ113" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="DA113" s="4" t="s">
-        <v>3</v>
+      <c r="DA113" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="DB113" s="24" t="s">
         <v>53</v>
@@ -22965,7 +22890,7 @@
         <v>17</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S116" s="15" t="s">
         <v>58</v>
@@ -23324,7 +23249,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>323</v>
@@ -23336,7 +23261,7 @@
         <v>14</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>124</v>
@@ -23345,7 +23270,7 @@
         <v>3</v>
       </c>
       <c r="U117" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V117" s="5" t="s">
         <v>318</v>
@@ -23369,7 +23294,7 @@
         <v>59</v>
       </c>
       <c r="AC117" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD117" s="14" t="s">
         <v>3</v>
@@ -23745,7 +23670,7 @@
         <v>17</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S120" s="15" t="s">
         <v>58</v>
@@ -24078,7 +24003,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:128" s="5" customFormat="1" ht="63.75">
+    <row r="121" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A121" s="33" t="s">
         <v>3</v>
       </c>
@@ -24089,7 +24014,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="E121" s="41" t="s">
         <v>53</v>
@@ -24104,7 +24029,7 @@
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>117</v>
@@ -24122,7 +24047,7 @@
         <v>5</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>124</v>
@@ -24147,7 +24072,7 @@
         <v>59</v>
       </c>
       <c r="AC121" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD121" s="14" t="s">
         <v>3</v>
@@ -24355,7 +24280,7 @@
     </row>
     <row r="123" spans="1:128" s="9" customFormat="1">
       <c r="A123" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B123" s="8"/>
       <c r="E123" s="8"/>
@@ -24478,7 +24403,7 @@
         <v>17</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S124" s="15" t="s">
         <v>58</v>
@@ -24837,10 +24762,10 @@
         <v>3</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>124</v>
@@ -24865,7 +24790,7 @@
         <v>59</v>
       </c>
       <c r="AC125" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD125" s="14" t="s">
         <v>3</v>
@@ -25003,7 +24928,7 @@
     </row>
     <row r="127" spans="1:128" s="9" customFormat="1">
       <c r="A127" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B127" s="8"/>
       <c r="E127" s="8"/>
@@ -25126,7 +25051,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S128" s="15" t="s">
         <v>58</v>
@@ -25485,10 +25410,10 @@
         <v>3</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>124</v>
@@ -25513,7 +25438,7 @@
         <v>59</v>
       </c>
       <c r="AC129" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD129" s="14" t="s">
         <v>3</v>
@@ -25543,7 +25468,7 @@
       <c r="BE129" s="14"/>
       <c r="BF129" s="14"/>
       <c r="BG129" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="BH129" s="14" t="s">
         <v>314</v>
@@ -25630,7 +25555,7 @@
     </row>
     <row r="131" spans="1:128" s="9" customFormat="1">
       <c r="A131" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B131" s="8"/>
       <c r="E131" s="8"/>
@@ -25753,7 +25678,7 @@
         <v>17</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S132" s="15" t="s">
         <v>58</v>
@@ -26112,10 +26037,10 @@
         <v>3</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>124</v>
@@ -26140,7 +26065,7 @@
         <v>59</v>
       </c>
       <c r="AC133" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD133" s="14" t="s">
         <v>3</v>
@@ -26276,7 +26201,7 @@
     </row>
     <row r="135" spans="1:128" s="9" customFormat="1">
       <c r="A135" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B135" s="8"/>
       <c r="E135" s="8"/>
@@ -26399,7 +26324,7 @@
         <v>17</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S136" s="15" t="s">
         <v>58</v>
@@ -26758,10 +26683,10 @@
         <v>3</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>124</v>
@@ -26786,7 +26711,7 @@
         <v>59</v>
       </c>
       <c r="AC137" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD137" s="14" t="s">
         <v>3</v>
@@ -26816,7 +26741,7 @@
       <c r="BE137" s="14"/>
       <c r="BF137" s="14"/>
       <c r="BG137" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="BH137" s="14" t="s">
         <v>314</v>
@@ -26902,7 +26827,7 @@
     </row>
     <row r="139" spans="1:128" s="9" customFormat="1">
       <c r="A139" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B139" s="8"/>
       <c r="E139" s="8"/>
@@ -27025,7 +26950,7 @@
         <v>17</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S140" s="15" t="s">
         <v>58</v>
@@ -27384,10 +27309,10 @@
         <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>124</v>
@@ -27412,7 +27337,7 @@
         <v>59</v>
       </c>
       <c r="AC141" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD141" s="14" t="s">
         <v>3</v>
@@ -27548,7 +27473,7 @@
     </row>
     <row r="143" spans="1:128" s="9" customFormat="1">
       <c r="A143" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B143" s="8"/>
       <c r="E143" s="8"/>
@@ -27671,7 +27596,7 @@
         <v>17</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S144" s="15" t="s">
         <v>58</v>
@@ -28033,7 +27958,7 @@
         <v>311</v>
       </c>
       <c r="R145" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>124</v>
@@ -28058,7 +27983,7 @@
         <v>59</v>
       </c>
       <c r="AC145" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD145" s="14" t="s">
         <v>3</v>
@@ -30950,7 +30875,7 @@
     </row>
     <row r="188" spans="1:128" s="9" customFormat="1">
       <c r="A188" s="43" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B188" s="8"/>
       <c r="E188" s="8"/>
@@ -33114,7 +33039,7 @@
     </row>
     <row r="201" spans="1:128" s="9" customFormat="1">
       <c r="A201" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B201" s="8"/>
       <c r="E201" s="8"/>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -3552,7 +3552,7 @@
   <dimension ref="A1:EH243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A65" sqref="A65:XFD67"/>
     </sheetView>
   </sheetViews>
